--- a/BalanceSheet/MNST_bal.xlsx
+++ b/BalanceSheet/MNST_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-9186000.0</v>
+        <v>333000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>25309000.0</v>
+        <v>319000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>13144000.0</v>
+        <v>341000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1037000.0</v>
+        <v>352000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-40275000.0</v>
+        <v>361000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>317745000.0</v>
@@ -1808,19 +1808,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>28420000.0</v>
+        <v>297000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-2952000.0</v>
+        <v>282000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-26100000.0</v>
+        <v>262000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>19328000.0</v>
+        <v>306000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-40648000.0</v>
+        <v>274000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>304773000.0</v>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>-156873000.0</v>
+        <v>-242000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>-85000000.0</v>
@@ -3136,7 +3136,7 @@
         <v>-85000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>723000.0</v>
+        <v>-85000000.0</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
